--- a/Report/ROC graphs.xlsx
+++ b/Report/ROC graphs.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856"/>
   </bookViews>
   <sheets>
     <sheet name="HESPERBOR BETA ROC" sheetId="1" r:id="rId1"/>
     <sheet name="CRYPTLOCKER ALPHA ROC" sheetId="2" r:id="rId2"/>
+    <sheet name="Spotify" sheetId="4" r:id="rId3"/>
+    <sheet name="DarkComet" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="8">
   <si>
     <t>Threshold</t>
   </si>
@@ -139,8 +141,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ROC for hesperbor beta</a:t>
+              <a:t>ROC CURVES FOR</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> VARIOUS TESTS</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -184,25 +191,30 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'HESPERBOR BETA ROC'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1-P(FN)=P(TP)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>HESPERBOR BETA</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="sq">
-              <a:noFill/>
-              <a:bevel/>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -256,21 +268,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
-          <c:trendline>
-            <c:name>ROC CURVE</c:name>
-            <c:spPr>
-              <a:ln w="19050" cap="sq" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'HESPERBOR BETA ROC'!$H$2:$H$20</c:f>
@@ -405,6 +402,594 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CRYPTLOCKER ALPHA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000">
+                  <a:alpha val="53000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HESPERBOR BETA ROC'!$K$2:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HESPERBOR BETA ROC'!$L$2:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>DARKCOMET ALPHA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0">
+                  <a:alpha val="55000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HESPERBOR BETA ROC'!$Q$2:$Q$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HESPERBOR BETA ROC'!$R$2:$R$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>SPOTIFY (MUSIC)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HESPERBOR BETA ROC'!$N$2:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HESPERBOR BETA ROC'!$O$2:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -413,14 +998,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1492332496"/>
-        <c:axId val="-1492342832"/>
+        <c:axId val="1248342000"/>
+        <c:axId val="1248341456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1492332496"/>
+        <c:axId val="1248342000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
+          <c:min val="-1.0000000000000002E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -536,12 +1122,14 @@
             <a:endParaRPr lang="hsb-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1492342832"/>
+        <c:crossAx val="1248341456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1492342832"/>
+        <c:axId val="1248341456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -655,8 +1243,8 @@
             <a:endParaRPr lang="hsb-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1492332496"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1248342000"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -667,6 +1255,58 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hsb-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -684,7 +1324,13 @@
       </a:solidFill>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -995,11 +1641,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1483850912"/>
-        <c:axId val="-1483859616"/>
+        <c:axId val="1248340368"/>
+        <c:axId val="1248340912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1483850912"/>
+        <c:axId val="1248340368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1119,12 +1765,12 @@
             <a:endParaRPr lang="hsb-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1483859616"/>
+        <c:crossAx val="1248340912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1483859616"/>
+        <c:axId val="1248340912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.01"/>
@@ -1239,7 +1885,7 @@
             <a:endParaRPr lang="hsb-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1483850912"/>
+        <c:crossAx val="1248340368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2412,16 +3058,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1379220</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2743,10 +3389,1062 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>SUM(B2:E2)</f>
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H20" si="0">D2/($F$2-$E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I20" si="1">C2/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>0.44226399999999999</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>SUM(B3:E3)</f>
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>0.88898600000000005</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>SUM(B4:E4)</f>
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.3</v>
+      </c>
+      <c r="N4">
+        <v>0.04</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>1.18472</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F20" si="2">SUM(B5:E5)</f>
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.4</v>
+      </c>
+      <c r="N5">
+        <v>0.08</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>2.3662899999999998</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="N6">
+        <v>0.12</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>3.2295199999999999</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.6</v>
+      </c>
+      <c r="N7">
+        <v>0.16</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>4.28193</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.7</v>
+      </c>
+      <c r="N8">
+        <v>0.2</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0.25</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>4.8102</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.8</v>
+      </c>
+      <c r="N9">
+        <v>0.24</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>5.23759</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="L10">
+        <v>0.8</v>
+      </c>
+      <c r="N10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>7.5487700000000002</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="L11">
+        <v>0.9</v>
+      </c>
+      <c r="N11">
+        <v>0.32</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0.375</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>7.5487700000000002</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L12">
+        <v>0.9</v>
+      </c>
+      <c r="N12">
+        <v>0.36</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>7.8719400000000004</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0.4</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>9.2879000000000005</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0.44</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0.5</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>11.034700000000001</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.6875</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0.48</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>11.034700000000001</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0.52</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>11.8391</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0.625</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>18.342600000000001</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0.6</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>19.968800000000002</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0.64</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>23.1999</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0.68</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>0.75</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="N21">
+        <v>0.72</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="N22">
+        <v>0.8</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="N23">
+        <v>0.84</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0.875</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="N24">
+        <v>0.88</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="N25">
+        <v>0.92</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="N26">
+        <v>0.96</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2788,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2797,14 +4495,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <f>SUM(B2:E2)</f>
         <v>19</v>
       </c>
       <c r="H2">
-        <f>D2/($F$2-$E$2)</f>
+        <f t="shared" ref="H2:H18" si="0">D2/($F$2-$E$2)</f>
         <v>0</v>
       </c>
       <c r="I2">
@@ -2814,19 +4511,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>0.44226399999999999</v>
+        <v>0.12209803862539401</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <f>SUM(B3:E3)</f>
@@ -2837,515 +4534,460 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>C3/$E$2</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="I3:I18" si="1">C3/$E$2</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>0.88898600000000005</v>
+        <v>0.39614788096447301</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
         <v>19</v>
       </c>
       <c r="H4">
-        <f>D4/($F$2-$E$2)</f>
-        <v>6.25E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I4">
-        <f>C4/$E$2</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="1"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>1.18472</v>
+        <v>0.58330049136287498</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F20" si="0">SUM(B5:E5)</f>
+        <f t="shared" ref="F5:F18" si="2">SUM(B5:E5)</f>
         <v>19</v>
       </c>
       <c r="H5">
-        <f>D5/($F$2-$E$2)</f>
-        <v>6.25E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I5">
-        <f>C5/$E$2</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>2.3662899999999998</v>
+        <v>0.60810754825028401</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H6">
-        <f>D6/($F$2-$E$2)</f>
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I6">
-        <f>C6/$E$2</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>3.2295199999999999</v>
+        <v>0.92032980764354499</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H7">
-        <f>D7/($F$2-$E$2)</f>
-        <v>0.1875</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I7">
-        <f>C7/$E$2</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>4.28193</v>
+        <v>1.9403956583439099</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H8">
-        <f>D8/($F$2-$E$2)</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I8">
-        <f>C8/$E$2</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>4.8102</v>
+        <v>2.0530778692756702</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H9">
-        <f>D9/($F$2-$E$2)</f>
-        <v>0.3125</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I9">
-        <f>C9/$E$2</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>5.23759</v>
+        <v>2.6351519284865899</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H10">
-        <f>D10/($F$2-$E$2)</f>
-        <v>0.375</v>
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
       </c>
       <c r="I10">
-        <f>C10/$E$2</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>7.5487700000000002</v>
+        <v>3.3196323056202002</v>
       </c>
       <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
       <c r="D11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H11">
-        <f>D11/($F$2-$E$2)</f>
-        <v>0.4375</v>
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
       </c>
       <c r="I11">
-        <f>C11/$E$2</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>7.5487700000000002</v>
+        <v>3.9780258195322902</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H12">
-        <f>D12/($F$2-$E$2)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I12">
-        <f>C12/$E$2</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>7.8719400000000004</v>
+        <v>4.0434361429322703</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H13">
-        <f>D13/($F$2-$E$2)</f>
-        <v>0.5625</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I13">
-        <f>C13/$E$2</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>9.2879000000000005</v>
+        <v>5.2647333755263599</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H14">
-        <f>D14/($F$2-$E$2)</f>
-        <v>0.625</v>
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I14">
-        <f>C14/$E$2</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>11.034700000000001</v>
+        <v>5.3340977891436401</v>
       </c>
       <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H15">
-        <f>D15/($F$2-$E$2)</f>
-        <v>0.6875</v>
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
       </c>
       <c r="I15">
-        <f>C15/$E$2</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>11.034700000000001</v>
+        <v>6.5470192054422096</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H16">
-        <f>D16/($F$2-$E$2)</f>
-        <v>0.75</v>
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I16">
-        <f>C16/$E$2</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>11.8391</v>
+        <v>8.1438211025338596</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H17">
-        <f>D17/($F$2-$E$2)</f>
-        <v>0.8125</v>
+        <f t="shared" si="0"/>
+        <v>0.77777777777777779</v>
       </c>
       <c r="I17">
-        <f>C17/$E$2</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>18.342600000000001</v>
+        <v>13.4936809903816</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H18">
-        <f>D18/($F$2-$E$2)</f>
-        <v>0.875</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I18">
-        <f>C18/$E$2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>19.968800000000002</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="H19">
-        <f>D19/($F$2-$E$2)</f>
-        <v>0.9375</v>
-      </c>
-      <c r="I19">
-        <f>C19/$E$2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>23.1999</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>16</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="H20">
-        <f>D20/($F$2-$E$2)</f>
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f>C20/$E$2</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A20">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="H1:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3387,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3396,13 +5038,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H18" si="0">D2/($F$2-$E$2)</f>
+        <f>D2/($F$2-$E$2)</f>
         <v>0</v>
       </c>
       <c r="I2">
@@ -3412,10 +5054,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>0.12209803862539401</v>
+        <v>2.9807999999999999</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3424,461 +5066,1492 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f>SUM(B3:E3)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <f>D3/($F$2-$E$2)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I18" si="1">C3/$E$2</f>
-        <v>0.1</v>
+        <f>C3/$E$2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>0.39614788096447301</v>
+        <v>4.6753</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D4/($F$2-$E$2)</f>
+        <v>0.04</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <f>C4/$E$2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>0.58330049136287498</v>
+        <v>4.9977200000000002</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F18" si="2">SUM(B5:E5)</f>
-        <v>19</v>
+        <f t="shared" ref="F5:F28" si="0">SUM(B5:E5)</f>
+        <v>26</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D5/($F$2-$E$2)</f>
+        <v>0.08</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
+        <f>C5/$E$2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>0.60810754825028401</v>
+        <v>5.4477900000000004</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D6/($F$2-$E$2)</f>
+        <v>0.12</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>C6/$E$2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>0.92032980764354499</v>
+        <v>5.7216100000000001</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D7/($F$2-$E$2)</f>
+        <v>0.16</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+        <f>C7/$E$2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>1.9403956583439099</v>
+        <v>5.8894900000000003</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D8/($F$2-$E$2)</f>
+        <v>0.2</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
+        <f>C8/$E$2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>2.0530778692756702</v>
+        <v>6.4166299999999996</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D9/($F$2-$E$2)</f>
+        <v>0.24</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+        <f>C9/$E$2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>2.6351519284865899</v>
+        <v>6.5542499999999997</v>
       </c>
       <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <f>D10/($F$2-$E$2)</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+        <f>C10/$E$2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>3.3196323056202002</v>
+        <v>6.7395399999999999</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <f>D11/($F$2-$E$2)</f>
+        <v>0.32</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+        <f>C11/$E$2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>3.9780258195322902</v>
+        <v>6.7836600000000002</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>9</v>
       </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>D12/($F$2-$E$2)</f>
+        <v>0.36</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+        <f>C12/$E$2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>4.0434361429322703</v>
+        <v>7.6948499999999997</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>D13/($F$2-$E$2)</f>
+        <v>0.4</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f>C13/$E$2</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>5.2647333755263599</v>
+        <v>8.0712899999999994</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <f>D14/($F$2-$E$2)</f>
+        <v>0.44</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f>C14/$E$2</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>5.3340977891436401</v>
+        <v>8.2749000000000006</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <f>D15/($F$2-$E$2)</f>
+        <v>0.48</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f>C15/$E$2</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>6.5470192054422096</v>
+        <v>8.3403799999999997</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>D16/($F$2-$E$2)</f>
+        <v>0.52</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f>C16/$E$2</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>8.1438211025338596</v>
+        <v>8.51661</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
+        <f>D17/($F$2-$E$2)</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f>C17/$E$2</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>13.4936809903816</v>
+        <v>9.0733599999999992</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H18">
+        <f>D18/($F$2-$E$2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="I18">
+        <f>C18/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>9.6038899999999998</v>
+      </c>
+      <c r="B19">
         <v>9</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <f>D19/($F$2-$E$2)</f>
+        <v>0.64</v>
+      </c>
+      <c r="I19">
+        <f>C19/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>9.8986300000000007</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <f>D20/($F$2-$E$2)</f>
+        <v>0.68</v>
+      </c>
+      <c r="I20">
+        <f>C20/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>11.5578</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <f>D21/($F$2-$E$2)</f>
+        <v>0.72</v>
+      </c>
+      <c r="I21">
+        <f>C21/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>13.931900000000001</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <f>D22/($F$2-$E$2)</f>
+        <v>0.8</v>
+      </c>
+      <c r="I22">
+        <f>C22/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>13.967700000000001</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <f>D23/($F$2-$E$2)</f>
+        <v>0.84</v>
+      </c>
+      <c r="I23">
+        <f>C23/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>16.2499</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H24">
+        <f>D24/($F$2-$E$2)</f>
+        <v>0.88</v>
+      </c>
+      <c r="I24">
+        <f>C24/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>20.476900000000001</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <f>D25/($F$2-$E$2)</f>
+        <v>0.92</v>
+      </c>
+      <c r="I25">
+        <f>C25/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>30.834599999999998</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H26">
+        <f>D26/($F$2-$E$2)</f>
+        <v>0.96</v>
+      </c>
+      <c r="I26">
+        <f>C26/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>32.035499999999999</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <f>D27/($F$2-$E$2)</f>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f>C27/$E$2</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A20">
+  <sortState ref="A3:A28">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H2:I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <f>D2/($F$2-$E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>C2/$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>0.76531300000000002</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>SUM(B3:E3)</f>
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <f>D3/($F$2-$E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>C3/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3.3102900000000002</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F26" si="0">SUM(B4:E4)</f>
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <f>D4/($F$2-$E$2)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I4">
+        <f>C4/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3.3626900000000002</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <f>D5/($F$2-$E$2)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I5">
+        <f>C5/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>4.6774699999999996</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <f>D6/($F$2-$E$2)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I6">
+        <f>C6/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>5.0544900000000004</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <f>D7/($F$2-$E$2)</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I7">
+        <f>C7/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>5.0569300000000004</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <f>D8/($F$2-$E$2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I8">
+        <f>C8/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>5.9979500000000003</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <f>D9/($F$2-$E$2)</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I9">
+        <f>C9/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>6.7426599999999999</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <f>D10/($F$2-$E$2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I10">
+        <f>C10/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>7.9493600000000004</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <f>D11/($F$2-$E$2)</f>
+        <v>0.375</v>
+      </c>
+      <c r="I11">
+        <f>C11/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>9.2463200000000008</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <f>D12/($F$2-$E$2)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I12">
+        <f>C12/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>9.9332399999999996</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H13">
+        <f>D13/($F$2-$E$2)</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I13">
+        <f>C13/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>10.071999999999999</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <f>D14/($F$2-$E$2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I14">
+        <f>C14/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>10.8675</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H15">
+        <f>D15/($F$2-$E$2)</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I15">
+        <f>C15/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>10.9488</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H16">
+        <f>D16/($F$2-$E$2)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I16">
+        <f>C16/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>11.591799999999999</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <f>D17/($F$2-$E$2)</f>
+        <v>0.625</v>
+      </c>
+      <c r="I17">
+        <f>C17/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>13.232900000000001</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H18">
+        <f>D18/($F$2-$E$2)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I18">
+        <f>C18/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>13.260400000000001</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <f>D19/($F$2-$E$2)</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I19">
+        <f>C19/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>18.2927</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <f>D20/($F$2-$E$2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="I20">
+        <f>C20/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>19.521899999999999</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <f>D21/($F$2-$E$2)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I21">
+        <f>C21/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>19.763300000000001</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <f>D22/($F$2-$E$2)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I22">
+        <f>C22/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>22.3599</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <f>D23/($F$2-$E$2)</f>
+        <v>0.875</v>
+      </c>
+      <c r="I23">
+        <f>C23/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>26.988499999999998</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H24">
+        <f>D24/($F$2-$E$2)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I24">
+        <f>C24/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>29.5412</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <f>D25/($F$2-$E$2)</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I25">
+        <f>C25/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>29.987400000000001</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H26">
+        <f>D26/($F$2-$E$2)</f>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f>C26/$E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>